--- a/data/operations.xlsx
+++ b/data/operations.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgen\PycharmProjects\Kursovaya_Baburkin\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет по операциям" sheetId="1" r:id="rId4"/>
+    <sheet name="Отчет по операциям" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
-  <si>
-    <t>Дата операции</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="175">
   <si>
     <t>Дата платежа</t>
   </si>
@@ -540,19 +541,17 @@
   </si>
   <si>
     <t>01.08.2024 06:54:07</t>
+  </si>
+  <si>
+    <t>Дата_операции</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -563,10 +562,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -576,34 +572,36 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="2" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="1" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -893,4357 +891,4346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="1" topLeftCell="BM2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.234375" customWidth="true" style="0"/>
-    <col min="2" max="2" width="14.0625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.890625" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7.03125" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.40625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17.578125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.234375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="16.40625" customWidth="true" style="0"/>
-    <col min="9" max="9" width="7.03125" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.546875" customWidth="true" style="0"/>
-    <col min="11" max="11" width="3.515625" customWidth="true" style="0"/>
-    <col min="12" max="12" width="9.375" customWidth="true" style="0"/>
-    <col min="13" max="13" width="26.953125" customWidth="true" style="0"/>
-    <col min="14" max="14" width="31.640625" customWidth="true" style="0"/>
-    <col min="15" max="15" width="32.8125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customHeight="1" ht="12.75">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" customHeight="1" ht="12.75">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>-201.77</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>-201.77</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3">
         <v>5499</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>2</v>
       </c>
       <c r="N2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <v>201.77</v>
       </c>
     </row>
-    <row r="3" spans="1:15" customHeight="1" ht="12.75">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>-249.96</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>-249.96</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3">
         <v>5411</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>249.96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" customHeight="1" ht="12.75">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>-44</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>-44</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3">
         <v>4131</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" customHeight="1" ht="12.75">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>-50</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>-50</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3">
         <v>4111</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" customHeight="1" ht="12.75">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
-        <v>-67.99</v>
+        <v>-67.989999999999995</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-67.989999999999995</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-67.99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
       </c>
       <c r="K6" s="3">
         <v>5411</v>
       </c>
       <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>67.989999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>67.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" customHeight="1" ht="12.75">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>-500</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2">
         <v>-500</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:15" customHeight="1" ht="12.75">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2">
         <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" customHeight="1" ht="12.75">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>-388</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2">
         <v>-388</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3">
         <v>4111</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:15" customHeight="1" ht="12.75">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>-580</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
         <v>-580</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="3">
         <v>5921</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:15" customHeight="1" ht="12.75">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>-59.99</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
         <v>-59.99</v>
       </c>
       <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
       </c>
       <c r="K11" s="3">
         <v>5411</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>59.99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" customHeight="1" ht="12.75">
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2">
         <v>1000</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" customHeight="1" ht="12.75">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
         <v>500</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2">
         <v>500</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
-        <v>34</v>
-      </c>
       <c r="M13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:15" customHeight="1" ht="12.75">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>-500</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="2">
         <v>-500</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
-        <v>34</v>
-      </c>
       <c r="M14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" customHeight="1" ht="12.75">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2">
         <v>-2000</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2">
         <v>-2000</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="3">
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="3">
         <v>5977</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="2">
         <v>20</v>
       </c>
       <c r="N15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" customHeight="1" ht="12.75">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
         <v>-466</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2">
         <v>-466</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3">
         <v>5814</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2">
         <v>4</v>
       </c>
       <c r="N16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:15" customHeight="1" ht="12.75">
+    <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
         <v>-44</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2">
         <v>-44</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="3">
         <v>4131</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:15" customHeight="1" ht="12.75">
+    <row r="18" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
         <v>-100</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2">
         <v>-100</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" customHeight="1" ht="12.75">
+    <row r="19" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2">
         <v>700</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2">
         <v>700</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:15" customHeight="1" ht="12.75">
+    <row r="20" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2">
         <v>-389</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2">
         <v>-389</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="3">
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="3">
         <v>4111</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20" s="2">
         <v>3</v>
       </c>
       <c r="N20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:15" customHeight="1" ht="12.75">
+    <row r="21" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2">
         <v>-50</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2">
         <v>-50</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="3">
         <v>4111</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15" customHeight="1" ht="12.75">
+    <row r="22" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2">
         <v>-115.99</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2">
         <v>-115.99</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" s="3">
         <v>5921</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>115.99</v>
       </c>
     </row>
-    <row r="23" spans="1:15" customHeight="1" ht="12.75">
+    <row r="23" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="2">
         <v>-229</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="2">
         <v>-229</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="3">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="3">
         <v>5814</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M23" s="2">
         <v>2</v>
       </c>
       <c r="N23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:15" customHeight="1" ht="12.75">
+    <row r="24" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2">
         <v>-70</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2">
         <v>-70</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" s="3">
         <v>5814</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:15" customHeight="1" ht="12.75">
+    <row r="25" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2">
         <v>187</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2">
         <v>187</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
         <v>67</v>
       </c>
-      <c r="L25" t="s">
-        <v>68</v>
-      </c>
       <c r="M25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:15" customHeight="1" ht="12.75">
+    <row r="26" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="2">
         <v>-139.99</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="2">
         <v>-139.99</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="3">
         <v>5411</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
       </c>
       <c r="N26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>139.99</v>
       </c>
     </row>
-    <row r="27" spans="1:15" customHeight="1" ht="12.75">
+    <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2">
         <v>-176.98</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2">
         <v>-176.98</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="3">
         <v>5411</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M27" s="2">
         <v>1</v>
       </c>
       <c r="N27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>176.98</v>
       </c>
     </row>
-    <row r="28" spans="1:15" customHeight="1" ht="12.75">
+    <row r="28" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2">
         <v>-378</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2">
         <v>-378</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="3">
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" s="3">
         <v>5814</v>
       </c>
       <c r="L28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M28" s="2">
         <v>3</v>
       </c>
       <c r="N28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:15" customHeight="1" ht="12.75">
+    <row r="29" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2">
         <v>-70</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2">
         <v>-70</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" s="3">
         <v>5814</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:15" customHeight="1" ht="12.75">
+    <row r="30" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>-65.99</v>
+        <v>-65.989999999999995</v>
       </c>
       <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-65.989999999999995</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
         <v>19</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-65.99</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>20</v>
       </c>
       <c r="K30" s="3">
         <v>5411</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>65.99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" customHeight="1" ht="12.75">
+        <v>65.989999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2">
         <v>-70</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2">
         <v>-70</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="3">
         <v>5814</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:15" customHeight="1" ht="12.75">
+    <row r="32" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2">
         <v>-70</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="2">
         <v>-70</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32" s="3">
         <v>5814</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:15" customHeight="1" ht="12.75">
+    <row r="33" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2">
         <v>4300</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2">
         <v>4300</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>4300</v>
       </c>
     </row>
-    <row r="34" spans="1:15" customHeight="1" ht="12.75">
+    <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <v>-119.99</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="2">
         <v>-119.99</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K34" s="3">
         <v>5411</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M34" s="2">
         <v>1</v>
       </c>
       <c r="N34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>119.99</v>
       </c>
     </row>
-    <row r="35" spans="1:15" customHeight="1" ht="12.75">
+    <row r="35" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2">
         <v>-70</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2">
         <v>-70</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" s="3">
         <v>5814</v>
       </c>
       <c r="L35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:15" customHeight="1" ht="12.75">
+    <row r="36" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
         <v>-44</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="2">
         <v>-44</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" s="3">
         <v>4131</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" customHeight="1" ht="12.75">
+    <row r="37" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2">
         <v>-44</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2">
         <v>-44</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" s="3">
         <v>4131</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" customHeight="1" ht="12.75">
+    <row r="38" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2">
         <v>-100</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G38" s="2">
         <v>-100</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K38" s="3">
         <v>4111</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
       </c>
       <c r="N38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:15" customHeight="1" ht="12.75">
+    <row r="39" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="2">
         <v>-280</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="2">
         <v>-280</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="3">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39" s="3">
         <v>3990</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M39" s="2">
         <v>2</v>
       </c>
       <c r="N39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:15" customHeight="1" ht="12.75">
+    <row r="40" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2">
         <v>-776</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2">
         <v>-776</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="3">
         <v>7</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K40" s="3">
         <v>4111</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M40" s="2">
         <v>7</v>
       </c>
       <c r="N40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
         <v>776</v>
       </c>
     </row>
-    <row r="41" spans="1:15" customHeight="1" ht="12.75">
+    <row r="41" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="2">
         <v>1000</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2">
         <v>1000</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" customHeight="1" ht="12.75">
+    <row r="42" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
         <v>94</v>
       </c>
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2">
         <v>-61.99</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2">
         <v>-61.99</v>
       </c>
       <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
         <v>19</v>
-      </c>
-      <c r="J42" t="s">
-        <v>20</v>
       </c>
       <c r="K42" s="3">
         <v>5411</v>
       </c>
       <c r="L42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <v>61.99</v>
       </c>
     </row>
-    <row r="43" spans="1:15" customHeight="1" ht="12.75">
+    <row r="43" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2">
         <v>-1750</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G43" s="2">
         <v>-1750</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I43" s="3">
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43" s="3">
         <v>5814</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M43" s="2">
         <v>17</v>
       </c>
       <c r="N43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>1750</v>
       </c>
     </row>
-    <row r="44" spans="1:15" customHeight="1" ht="12.75">
+    <row r="44" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="2">
         <v>-7810</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2">
         <v>-7810</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K44" s="3">
         <v>9999</v>
       </c>
       <c r="L44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
         <v>7810</v>
       </c>
     </row>
-    <row r="45" spans="1:15" customHeight="1" ht="12.75">
+    <row r="45" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="2">
         <v>-483</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="2">
         <v>-483</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="3">
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45" s="3">
         <v>5814</v>
       </c>
       <c r="L45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M45" s="2">
         <v>4</v>
       </c>
       <c r="N45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>483</v>
       </c>
     </row>
-    <row r="46" spans="1:15" customHeight="1" ht="12.75">
+    <row r="46" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2">
         <v>1000</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2">
         <v>1000</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" t="s">
         <v>103</v>
       </c>
-      <c r="L46" t="s">
-        <v>104</v>
-      </c>
       <c r="M46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" customHeight="1" ht="12.75">
+    <row r="47" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" s="2">
         <v>-182</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2">
         <v>-182</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K47" s="3">
         <v>3990</v>
       </c>
       <c r="L47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M47" s="2">
         <v>1</v>
       </c>
       <c r="N47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:15" customHeight="1" ht="12.75">
+    <row r="48" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2">
         <v>-73</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" s="2">
         <v>-73</v>
       </c>
       <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
         <v>19</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
       </c>
       <c r="K48" s="3">
         <v>5921</v>
       </c>
       <c r="L48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:15" customHeight="1" ht="12.75">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2">
         <v>-106.89</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2">
         <v>-106.89</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K49" s="3">
         <v>5499</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M49" s="2">
         <v>1</v>
       </c>
       <c r="N49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
         <v>106.89</v>
       </c>
     </row>
-    <row r="50" spans="1:15" customHeight="1" ht="12.75">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2">
         <v>1000</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="2">
         <v>1000</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:15" customHeight="1" ht="12.75">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="2">
         <v>-212</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2">
         <v>-212</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="3">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K51" s="3">
         <v>3990</v>
       </c>
       <c r="L51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M51" s="2">
         <v>2</v>
       </c>
       <c r="N51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:15" customHeight="1" ht="12.75">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2">
         <v>1000</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2">
         <v>1000</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:15" customHeight="1" ht="12.75">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
         <v>113</v>
       </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2">
         <v>-39</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="2">
         <v>-39</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" s="3">
         <v>4131</v>
       </c>
       <c r="L53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:15" customHeight="1" ht="12.75">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2">
         <v>-39</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2">
         <v>-39</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" s="3">
         <v>4131</v>
       </c>
       <c r="L54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:15" customHeight="1" ht="12.75">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2">
         <v>-211.89</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2">
         <v>-211.89</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I55" s="3">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K55" s="3">
         <v>5411</v>
       </c>
       <c r="L55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M55" s="2">
         <v>2</v>
       </c>
       <c r="N55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2">
         <v>211.89</v>
       </c>
     </row>
-    <row r="56" spans="1:15" customHeight="1" ht="12.75">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2">
         <v>-67.69</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G56" s="2">
         <v>-67.69</v>
       </c>
       <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
         <v>19</v>
-      </c>
-      <c r="J56" t="s">
-        <v>20</v>
       </c>
       <c r="K56" s="3">
         <v>5499</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O56" s="2">
         <v>67.69</v>
       </c>
     </row>
-    <row r="57" spans="1:15" customHeight="1" ht="12.75">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2">
         <v>-39</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2">
         <v>-39</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K57" s="3">
         <v>4131</v>
       </c>
       <c r="L57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:15" customHeight="1" ht="12.75">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2">
         <v>-39</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2">
         <v>-39</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K58" s="3">
         <v>4131</v>
       </c>
       <c r="L58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:15" customHeight="1" ht="12.75">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
         <v>121</v>
       </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2">
         <v>-134</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2">
         <v>-134</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K59" s="3">
         <v>5921</v>
       </c>
       <c r="L59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
       </c>
       <c r="N59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:15" customHeight="1" ht="12.75">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" s="2">
         <v>-208</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2">
         <v>-208</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="3">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K60" s="3">
         <v>3990</v>
       </c>
       <c r="L60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M60" s="2">
         <v>2</v>
       </c>
       <c r="N60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O60" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:15" customHeight="1" ht="12.75">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" s="2">
         <v>-410.95</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="2">
         <v>-410.95</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I61" s="3">
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61" s="3">
         <v>5411</v>
       </c>
       <c r="L61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M61" s="2">
         <v>4</v>
       </c>
       <c r="N61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2">
         <v>410.95</v>
       </c>
     </row>
-    <row r="62" spans="1:15" customHeight="1" ht="12.75">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2">
         <v>-179.98</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2">
         <v>-179.98</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62" s="3">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K62" s="3">
         <v>5411</v>
       </c>
       <c r="L62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M62" s="2">
         <v>1</v>
       </c>
       <c r="N62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O62" s="2">
         <v>179.98</v>
       </c>
     </row>
-    <row r="63" spans="1:15" customHeight="1" ht="12.75">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="2">
         <v>-655</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2">
         <v>-655</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I63" s="3">
         <v>6</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K63" s="3">
         <v>5814</v>
       </c>
       <c r="L63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M63" s="2">
         <v>6</v>
       </c>
       <c r="N63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2">
         <v>655</v>
       </c>
     </row>
-    <row r="64" spans="1:15" customHeight="1" ht="12.75">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" s="2">
         <v>-100</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G64" s="2">
         <v>-100</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M64" s="2">
         <v>1</v>
       </c>
       <c r="N64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O64" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:15" customHeight="1" ht="12.75">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="2">
         <v>-44</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G65" s="2">
         <v>-44</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K65" s="3">
         <v>4131</v>
       </c>
       <c r="L65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O65" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:15" customHeight="1" ht="12.75">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" s="2">
         <v>1500</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G66" s="2">
         <v>1500</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="s">
         <v>33</v>
       </c>
-      <c r="L66" t="s">
-        <v>34</v>
-      </c>
       <c r="M66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="1:15" customHeight="1" ht="12.75">
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2">
         <v>-1500</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2">
         <v>-1500</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s">
         <v>33</v>
       </c>
-      <c r="L67" t="s">
-        <v>34</v>
-      </c>
       <c r="M67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="68" spans="1:15" customHeight="1" ht="12.75">
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="2">
         <v>-778</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G68" s="2">
         <v>-778</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" s="3">
         <v>7</v>
       </c>
       <c r="J68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K68" s="3">
         <v>4111</v>
       </c>
       <c r="L68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M68" s="2">
         <v>7</v>
       </c>
       <c r="N68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
         <v>778</v>
       </c>
     </row>
-    <row r="69" spans="1:15" customHeight="1" ht="12.75">
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="2">
         <v>-100</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2">
         <v>-100</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K69" s="3">
         <v>4111</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M69" s="2">
         <v>1</v>
       </c>
       <c r="N69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O69" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:15" customHeight="1" ht="12.75">
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
         <v>133</v>
       </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2">
         <v>-44</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G70" s="2">
         <v>-44</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" s="3">
         <v>4131</v>
       </c>
       <c r="L70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:15" customHeight="1" ht="12.75">
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" s="2">
         <v>-44</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2">
         <v>-44</v>
       </c>
       <c r="H71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K71" s="3">
         <v>4131</v>
       </c>
       <c r="L71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O71" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:15" customHeight="1" ht="12.75">
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="2">
         <v>-223.98</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G72" s="2">
         <v>-223.98</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I72" s="3">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K72" s="3">
         <v>5411</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M72" s="2">
         <v>2</v>
       </c>
       <c r="N72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O72" s="2">
         <v>223.98</v>
       </c>
     </row>
-    <row r="73" spans="1:15" customHeight="1" ht="12.75">
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="2">
         <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2">
         <v>58</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K73" s="3">
         <v>3990</v>
       </c>
       <c r="L73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:15" customHeight="1" ht="12.75">
+    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
-        <v>141</v>
-      </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" s="2">
         <v>-150</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G74" s="2">
         <v>-150</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74" s="3">
         <v>5814</v>
       </c>
       <c r="L74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M74" s="2">
         <v>1</v>
       </c>
       <c r="N74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:15" customHeight="1" ht="12.75">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2">
         <v>-533</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2">
         <v>-533</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" s="3">
         <v>5</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75" s="3">
         <v>5814</v>
       </c>
       <c r="L75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M75" s="2">
         <v>5</v>
       </c>
       <c r="N75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:15" customHeight="1" ht="12.75">
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2">
         <v>-150</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2">
         <v>-150</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K76" s="3">
         <v>3990</v>
       </c>
       <c r="L76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M76" s="2">
         <v>1</v>
       </c>
       <c r="N76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:15" customHeight="1" ht="12.75">
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="2">
-        <v>-545.42</v>
+        <v>-545.41999999999996</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2">
-        <v>-545.42</v>
+        <v>-545.41999999999996</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I77" s="3">
         <v>5</v>
       </c>
       <c r="J77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K77" s="3">
         <v>5411</v>
       </c>
       <c r="L77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M77" s="2">
         <v>5</v>
       </c>
       <c r="N77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2">
-        <v>545.42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" customHeight="1" ht="12.75">
+        <v>545.41999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2">
         <v>-600</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2">
         <v>-600</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O78" s="2">
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:15" customHeight="1" ht="12.75">
+    <row r="79" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="2">
-        <v>-69.99</v>
+        <v>-69.989999999999995</v>
       </c>
       <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="2">
+        <v>-69.989999999999995</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
         <v>19</v>
-      </c>
-      <c r="G79" s="2">
-        <v>-69.99</v>
-      </c>
-      <c r="H79" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" t="s">
-        <v>20</v>
       </c>
       <c r="K79" s="3">
         <v>5411</v>
       </c>
       <c r="L79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O79" s="2">
-        <v>69.99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" customHeight="1" ht="12.75">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2">
         <v>-115.99</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2">
         <v>-115.99</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K80" s="3">
         <v>5921</v>
       </c>
       <c r="L80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M80" s="2">
         <v>1</v>
       </c>
       <c r="N80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O80" s="2">
         <v>115.99</v>
       </c>
     </row>
-    <row r="81" spans="1:15" customHeight="1" ht="12.75">
+    <row r="81" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" s="2">
         <v>-500</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2">
         <v>-500</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I81" s="3">
         <v>5</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81" s="3">
         <v>7230</v>
       </c>
       <c r="L81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M81" s="2">
         <v>5</v>
       </c>
       <c r="N81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O81" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:15" customHeight="1" ht="12.75">
+    <row r="82" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" s="2">
         <v>1500</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2">
         <v>1500</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" t="s">
         <v>33</v>
       </c>
-      <c r="L82" t="s">
-        <v>34</v>
-      </c>
       <c r="M82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O82" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="83" spans="1:15" customHeight="1" ht="12.75">
+    <row r="83" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="2">
         <v>-1500</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2">
         <v>-1500</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" t="s">
         <v>33</v>
       </c>
-      <c r="L83" t="s">
-        <v>34</v>
-      </c>
       <c r="M83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O83" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="84" spans="1:15" customHeight="1" ht="12.75">
+    <row r="84" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2">
         <v>7810</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G84" s="2">
         <v>7810</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
+        <v>32</v>
+      </c>
+      <c r="L84" t="s">
         <v>33</v>
       </c>
-      <c r="L84" t="s">
-        <v>34</v>
-      </c>
       <c r="M84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O84" s="2">
         <v>7810</v>
       </c>
     </row>
-    <row r="85" spans="1:15" customHeight="1" ht="12.75">
+    <row r="85" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="2">
         <v>-7810</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2">
         <v>-7810</v>
       </c>
       <c r="H85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" t="s">
         <v>33</v>
       </c>
-      <c r="L85" t="s">
-        <v>34</v>
-      </c>
       <c r="M85" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N85" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O85" s="2">
         <v>7810</v>
       </c>
     </row>
-    <row r="86" spans="1:15" customHeight="1" ht="12.75">
+    <row r="86" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2">
         <v>-7000</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2">
         <v>-7000</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O86" s="2">
         <v>7000</v>
       </c>
     </row>
-    <row r="87" spans="1:15" customHeight="1" ht="12.75">
+    <row r="87" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" s="2">
         <v>21082</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2">
         <v>21082</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O87" s="2">
         <v>21082</v>
       </c>
     </row>
-    <row r="88" spans="1:15" customHeight="1" ht="12.75">
+    <row r="88" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" s="2">
         <v>-43</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2">
         <v>-43</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K88" s="3">
         <v>4111</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O88" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:15" customHeight="1" ht="12.75">
+    <row r="89" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89" s="2">
         <v>-86</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2">
         <v>-86</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K89" s="3">
         <v>4111</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O89" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:15" customHeight="1" ht="12.75">
+    <row r="90" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
         <v>159</v>
       </c>
-      <c r="B90" t="s">
-        <v>160</v>
-      </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="2">
         <v>-45</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2">
         <v>-45</v>
       </c>
       <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
         <v>19</v>
-      </c>
-      <c r="J90" t="s">
-        <v>20</v>
       </c>
       <c r="K90" s="3">
         <v>5499</v>
       </c>
       <c r="L90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O90" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:15" customHeight="1" ht="12.75">
+    <row r="91" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91" s="2">
         <v>-70</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2">
         <v>-70</v>
       </c>
       <c r="H91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91" s="3">
         <v>5814</v>
       </c>
       <c r="L91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O91" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:15" customHeight="1" ht="12.75">
+    <row r="92" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
         <v>163</v>
       </c>
-      <c r="B92" t="s">
-        <v>164</v>
-      </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2">
         <v>-119.9</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2">
         <v>-119.9</v>
       </c>
       <c r="H92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K92" s="3">
         <v>5411</v>
       </c>
       <c r="L92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M92" s="2">
         <v>1</v>
       </c>
       <c r="N92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>119.9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" customHeight="1" ht="12.75">
+    <row r="93" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="2">
         <v>-70</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2">
         <v>-70</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93" s="3">
         <v>5814</v>
       </c>
       <c r="L93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O93" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:15" customHeight="1" ht="12.75">
+    <row r="94" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" s="2">
         <v>-35</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2">
         <v>-35</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94" s="3">
         <v>5814</v>
       </c>
       <c r="L94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O94" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:15" customHeight="1" ht="12.75">
+    <row r="95" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" t="s">
         <v>168</v>
       </c>
-      <c r="B95" t="s">
-        <v>169</v>
-      </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="2">
         <v>-682.95</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2">
         <v>-682.95</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I95" s="3">
         <v>6</v>
       </c>
       <c r="J95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" s="3">
         <v>5411</v>
       </c>
       <c r="L95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M95" s="2">
         <v>6</v>
       </c>
       <c r="N95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O95" s="2">
         <v>682.95</v>
       </c>
     </row>
-    <row r="96" spans="1:15" customHeight="1" ht="12.75">
+    <row r="96" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96" s="2">
         <v>-75</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2">
         <v>-75</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K96" s="3">
         <v>5812</v>
       </c>
       <c r="L96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:15" customHeight="1" ht="12.75">
+    <row r="97" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" s="2">
         <v>-70</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2">
         <v>-70</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97" s="3">
         <v>5814</v>
       </c>
       <c r="L97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O97" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:15" customHeight="1" ht="12.75">
+    <row r="98" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" s="2">
         <v>-35</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2">
         <v>-35</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98" s="3">
         <v>5814</v>
       </c>
       <c r="L98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O98" s="2">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/operations.xlsx
+++ b/data/operations.xlsx
@@ -543,7 +543,7 @@
     <t>01.08.2024 06:54:07</t>
   </si>
   <si>
-    <t>Дата_операции</t>
+    <t>Дата операции</t>
   </si>
 </sst>
 </file>
